--- a/ptsdoctor.xlsx
+++ b/ptsdoctor.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">Disease_id</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">Disease_pdf_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">O_medicine_name</t>
@@ -87,6 +90,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,19 +172,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.51"/>
   </cols>
@@ -209,6 +213,11 @@
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -233,40 +242,40 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -285,40 +294,40 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ptsdoctor.xlsx
+++ b/ptsdoctor.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t xml:space="preserve">Disease_id</t>
   </si>
@@ -48,7 +48,46 @@
     <t xml:space="preserve">Disease_pdf_file</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Io_medicine_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Io_medicine_other_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Io_how_to_use_text_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine_pdf_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Io_incredience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar</t>
   </si>
   <si>
     <t xml:space="preserve">O_medicine_name</t>
@@ -60,22 +99,7 @@
     <t xml:space="preserve">O_how_to_use_text_file</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicine_pdf_file</t>
-  </si>
-  <si>
     <t xml:space="preserve">O_incredience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Io_medicine_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Io_medicine_other_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Io_how_to_use_text_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Io_incredience</t>
   </si>
 </sst>
 </file>
@@ -85,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -106,6 +130,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +187,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,20 +221,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.51"/>
   </cols>
   <sheetData>
@@ -208,7 +257,7 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
@@ -216,11 +265,143 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -236,43 +417,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>13</v>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -288,43 +492,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>17</v>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ptsdoctor.xlsx
+++ b/ptsdoctor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t xml:space="preserve">Disease_id</t>
   </si>
@@ -57,15 +57,21 @@
     <t xml:space="preserve">nil</t>
   </si>
   <si>
+    <t xml:space="preserve">abc,mno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc,bnm</t>
+  </si>
+  <si>
     <t xml:space="preserve">abc</t>
   </si>
   <si>
-    <t xml:space="preserve">cba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Io_medicine_name</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnm</t>
   </si>
   <si>
     <t xml:space="preserve">O_medicine_name</t>
@@ -109,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,12 +150,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +206,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,11 +229,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
@@ -304,7 +310,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
@@ -330,7 +336,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>
@@ -356,7 +362,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
@@ -382,7 +388,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
@@ -417,13 +423,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
@@ -435,30 +441,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -467,15 +473,57 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://github.com/seenuvasan1947/ptsdoctor-data/raw/main/healthy.txt"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -498,7 +546,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.2"/>
@@ -510,22 +558,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -542,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
